--- a/Results/Alternating_block_method.xlsx
+++ b/Results/Alternating_block_method.xlsx
@@ -9,7 +9,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alternating_block" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Plot" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Alternating_block'!$A$1:$I$27</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -17,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -33,16 +35,30 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <color rgb="00FF0000"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0016A085"/>
+        <bgColor rgb="0016A085"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -65,14 +81,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -148,6 +187,145 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Alternating_Block_Method - Hyetograph</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Alternating_block'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Alternating_block'!$A$2:$A$25</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Alternating_block'!$B$2:$B$25</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Time (h)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Rainfall (mm)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -439,219 +617,278 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A2:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="4" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="4" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="4" customWidth="1" min="5" max="5"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" s="2" t="n"/>
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>precip</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="3">
+      <c r="A3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>2.034603534032243</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="B3" s="5" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>Descriptive Statistics</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>2.163611212861696</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="B4" s="5" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="D4" s="7" t="inlineStr">
+        <is>
+          <t>Station</t>
+        </is>
+      </c>
+      <c r="G4" s="8" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
-        <v>2.314778069500989</v>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="B5" s="5" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>ΜΕΓΑΛΗ ΠΑΝΑΓΙΑ</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="G5" s="8" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>53.48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>2.494858572912705</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="B6" s="5" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="G6" s="8" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>2.713796012052541</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="B7" s="5" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10.24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
-        <v>2.98691911908918</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="B8" s="5" t="n">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
-        <v>3.339293329654751</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="B9" s="5" t="n">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
-        <v>3.815234330385564</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="B10" s="5" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
-        <v>4.502105661242709</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="B11" s="5" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
-        <v>5.602815413980579</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="B12" s="5" t="n">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="n">
-        <v>7.741989921337819</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="B13" s="5" t="n">
+        <v>7.74</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
-        <v>14.6626228432654</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="B14" s="5" t="n">
+        <v>14.66</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="n">
-        <v>53.47553357823057</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="B15" s="5" t="n">
+        <v>53.48</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="n">
-        <v>9.906105244293357</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="B16" s="5" t="n">
+        <v>9.91</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="n">
-        <v>6.462505267119212</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="B17" s="5" t="n">
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
-        <v>4.978925330810284</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="B18" s="5" t="n">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
-        <v>4.123854379746334</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="B19" s="5" t="n">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="n">
-        <v>3.55782403767526</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="B20" s="5" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="n">
-        <v>3.151052531850127</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="B21" s="5" t="n">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="n">
-        <v>2.842320482290745</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="B22" s="5" t="n">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="n">
-        <v>2.598674513305923</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="B23" s="5" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="n">
-        <v>2.400676473606268</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="B24" s="5" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="B24" t="n">
-        <v>2.23606003656036</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="B25" s="5" t="n">
+        <v>2.24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="B25" t="n">
-        <v>2.096671965515924</v>
+      <c r="B26" s="5" t="n">
+        <v>2.1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D3:E3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -671,5 +908,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>